--- a/classfiers/chatty/MLP/chatty-mlp-results.xlsx
+++ b/classfiers/chatty/MLP/chatty-mlp-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.9971139971139972</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9927536231884058</v>
+        <v>0.9891304347826086</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4666666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D7" t="n">
-        <v>0.52</v>
+        <v>0.72</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9985507246376812</v>
+        <v>0.9972488863793212</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/chatty/MLP/chatty-mlp-results.xlsx
+++ b/classfiers/chatty/MLP/chatty-mlp-results.xlsx
@@ -470,13 +470,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9971139971139972</v>
+        <v>0.9980769230769231</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9891304347826086</v>
+        <v>0.9701923076923077</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9971014492753623</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9990338164251208</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.9980676328502415</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4800000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.72</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9972488863793212</v>
+        <v>0.9924944258639912</v>
       </c>
     </row>
   </sheetData>
